--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/186.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/186.xlsx
@@ -479,13 +479,13 @@
         <v>-6.500978433857944</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.77945825356703</v>
+        <v>-14.7123340168975</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.000657328981178383</v>
+        <v>-0.05682330817218322</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.28291002593009</v>
+        <v>-11.19341104370405</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.171405860000842</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.9255683532807</v>
+        <v>-14.86504263724339</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07764773431518524</v>
+        <v>0.01383585026461237</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.98190489129597</v>
+        <v>-10.89840218377144</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.764924283772293</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.29414286288097</v>
+        <v>-15.22789581050183</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1089383381069105</v>
+        <v>0.05024554446745257</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.62589899242375</v>
+        <v>-10.53503841070217</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.319834416560258</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.8118387018485</v>
+        <v>-15.73908477495703</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2471145022984875</v>
+        <v>0.1798069733891737</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.44425638279765</v>
+        <v>-10.34948120252639</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.839221109919024</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.30287861223028</v>
+        <v>-16.22504487183621</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2345720761761139</v>
+        <v>0.1704590691601813</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.2905265628301</v>
+        <v>-10.19177132249496</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.342375764206817</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.88858896446058</v>
+        <v>-16.79856629012087</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3933555250405676</v>
+        <v>0.3097742636989884</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.14187655636514</v>
+        <v>-10.04394613110903</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.839946135191645</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.48729997341271</v>
+        <v>-17.38689510291951</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5326183503680079</v>
+        <v>0.4576649165991261</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.935960817270473</v>
+        <v>-9.838423161099614</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.356238806889885</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.23061546725171</v>
+        <v>-18.11688263246563</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8222986430440388</v>
+        <v>0.7375259821438626</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.974779495196191</v>
+        <v>-9.875566024261591</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.9059362530153</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.7228205925864</v>
+        <v>-18.60135020682086</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8514290168668793</v>
+        <v>0.777169475148609</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.623617748375414</v>
+        <v>-9.528489075927432</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.509753122436222</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.33847304141572</v>
+        <v>-19.20753692069562</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9768925549991402</v>
+        <v>0.9026722901893951</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.58096302571707</v>
+        <v>-9.482063770050672</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.184857213396429</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.88931859117851</v>
+        <v>-19.7551486716565</v>
       </c>
       <c r="F12" t="n">
-        <v>1.147079399638737</v>
+        <v>1.063157738423273</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.091075237985365</v>
+        <v>-8.990866752034794</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.939121985052166</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.70999650250926</v>
+        <v>-20.56929352386923</v>
       </c>
       <c r="F13" t="n">
-        <v>1.339313682263801</v>
+        <v>1.249225546409884</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.614489229940853</v>
+        <v>-8.501738317867908</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.781680166390031</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.54298117851124</v>
+        <v>-21.40140101558082</v>
       </c>
       <c r="F14" t="n">
-        <v>1.672538974191413</v>
+        <v>1.572173380606741</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.176918284364683</v>
+        <v>-8.048797008755551</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.707846859044806</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.37076821028506</v>
+        <v>-22.22565312558737</v>
       </c>
       <c r="F15" t="n">
-        <v>1.790474438189682</v>
+        <v>1.686024046118391</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.7527407645956</v>
+        <v>-7.611147509362334</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.706193932580586</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.2233520636411</v>
+        <v>-23.08217776209877</v>
       </c>
       <c r="F16" t="n">
-        <v>2.073844240896001</v>
+        <v>1.965230496521041</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.161793491228611</v>
+        <v>-7.030399139909048</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.762870409657379</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.8324059918382</v>
+        <v>-23.69458331982335</v>
       </c>
       <c r="F17" t="n">
-        <v>2.266405831092108</v>
+        <v>2.156090087347724</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.080739044335485</v>
+        <v>-6.944867125444052</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.859931350985115</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.64956207370453</v>
+        <v>-24.50774624932295</v>
       </c>
       <c r="F18" t="n">
-        <v>2.696776010105327</v>
+        <v>2.574624824592023</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.67922430078543</v>
+        <v>-6.543732058676407</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.983876430970932</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.50769706346546</v>
+        <v>-25.35937436457155</v>
       </c>
       <c r="F19" t="n">
-        <v>2.964120834133373</v>
+        <v>2.840162910827911</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.36846540053422</v>
+        <v>-6.239336017606276</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.126099916192621</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.26108053818975</v>
+        <v>-26.11256145475321</v>
       </c>
       <c r="F20" t="n">
-        <v>3.185590229004011</v>
+        <v>3.06194652096675</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.274724512187461</v>
+        <v>-6.129858181243763</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.278661634465024</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.84582206000976</v>
+        <v>-26.6967007306425</v>
       </c>
       <c r="F21" t="n">
-        <v>3.497501251905293</v>
+        <v>3.378596957496737</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.932871392687152</v>
+        <v>-5.797627904332121</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.438193998603432</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.43369264220895</v>
+        <v>-27.28334063637456</v>
       </c>
       <c r="F22" t="n">
-        <v>3.691084041723055</v>
+        <v>3.58273214340493</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.808337408056653</v>
+        <v>-5.655157464808458</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.603208737875211</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.8727953872176</v>
+        <v>-27.72919900964954</v>
       </c>
       <c r="F23" t="n">
-        <v>3.871626897910458</v>
+        <v>3.765029368173124</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.602513315081878</v>
+        <v>-5.455159446598251</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.770200379812739</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.10433276297352</v>
+        <v>-27.95899510912752</v>
       </c>
       <c r="F24" t="n">
-        <v>4.008912785508797</v>
+        <v>3.901136948515708</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.442669389687245</v>
+        <v>-5.293181475840417</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.941241632740799</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.36606098908247</v>
+        <v>-28.22539728735096</v>
       </c>
       <c r="F25" t="n">
-        <v>4.325432299010366</v>
+        <v>4.216582893184256</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.143300792908336</v>
+        <v>-4.998774861838522</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.114995925388404</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.32475477361682</v>
+        <v>-28.18511227150697</v>
       </c>
       <c r="F26" t="n">
-        <v>4.498250696521151</v>
+        <v>4.379163109872811</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.153709173667509</v>
+        <v>-5.003671383101327</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.290319990085283</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.21108740034495</v>
+        <v>-28.07618431186381</v>
       </c>
       <c r="F27" t="n">
-        <v>4.442451301809714</v>
+        <v>4.330721589358424</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.950123864478668</v>
+        <v>-4.816137237196443</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.469165668854611</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.16506795585629</v>
+        <v>-28.02575276131748</v>
       </c>
       <c r="F28" t="n">
-        <v>4.409511067859931</v>
+        <v>4.308386120710439</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.853463392598204</v>
+        <v>-4.729937515286519</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.649093199070598</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.94147760792529</v>
+        <v>-27.81084261017055</v>
       </c>
       <c r="F29" t="n">
-        <v>4.394428734986263</v>
+        <v>4.296131725250583</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.727122670175548</v>
+        <v>-4.609331221508539</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.830837647620703</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.79136126354206</v>
+        <v>-27.66450994130858</v>
       </c>
       <c r="F30" t="n">
-        <v>4.286940928655691</v>
+        <v>4.197468131035336</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.679846364614075</v>
+        <v>-4.562814269511886</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.013535062053618</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.34081584584974</v>
+        <v>-27.21907052172453</v>
       </c>
       <c r="F31" t="n">
-        <v>4.136012861496273</v>
+        <v>4.051515138955773</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.756881474534791</v>
+        <v>-4.652051405681091</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.193164038163407</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.95815401839177</v>
+        <v>-26.84195983067145</v>
       </c>
       <c r="F32" t="n">
-        <v>4.044576218449659</v>
+        <v>3.964817909537864</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.835579306916407</v>
+        <v>-4.731966822226987</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.36965227111035</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.53837551237751</v>
+        <v>-26.42225987847424</v>
       </c>
       <c r="F33" t="n">
-        <v>3.909463653123046</v>
+        <v>3.831354974369308</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.741471834090079</v>
+        <v>-4.664620016409148</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.53759952484697</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.04761054035541</v>
+        <v>-25.93530476657908</v>
       </c>
       <c r="F34" t="n">
-        <v>3.772937119089526</v>
+        <v>3.700955638065716</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.547731936638217</v>
+        <v>-4.483239252839875</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.694006466074566</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.63331770923183</v>
+        <v>-25.52747953305931</v>
       </c>
       <c r="F35" t="n">
-        <v>3.535730776203133</v>
+        <v>3.461916372781482</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.540845385343469</v>
+        <v>-4.487887020348688</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.837887646396609</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.94508153344797</v>
+        <v>-24.83856255752769</v>
       </c>
       <c r="F36" t="n">
-        <v>3.304992030920553</v>
+        <v>3.24322254611329</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.803778103313854</v>
+        <v>-4.75664581308364</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.965251989659579</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.45959275947109</v>
+        <v>-24.35910933516084</v>
       </c>
       <c r="F37" t="n">
-        <v>3.17799669335581</v>
+        <v>3.113163609683583</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.786129679083207</v>
+        <v>-4.749392677309324</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.079283899808908</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.03881923844085</v>
+        <v>-23.94345490454172</v>
       </c>
       <c r="F38" t="n">
-        <v>3.10297779807272</v>
+        <v>3.040056190615384</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.935277193056151</v>
+        <v>-4.893879331470613</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.178459969037697</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.53600934780436</v>
+        <v>-23.44351222822757</v>
       </c>
       <c r="F39" t="n">
-        <v>3.076374238698333</v>
+        <v>3.011986293322724</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.797873474732236</v>
+        <v>-4.764213164126158</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.263782756626752</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.14964239864218</v>
+        <v>-23.0601303241133</v>
       </c>
       <c r="F40" t="n">
-        <v>3.180615153924156</v>
+        <v>3.10297779807272</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.774765560216589</v>
+        <v>-4.749523600337741</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.339303254988907</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.61720462667487</v>
+        <v>-22.52953856684667</v>
       </c>
       <c r="F41" t="n">
-        <v>3.188418166417824</v>
+        <v>3.119159884385093</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.70233894089616</v>
+        <v>-4.677502842405406</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.405829084456865</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.93313180319468</v>
+        <v>-21.85273197144364</v>
       </c>
       <c r="F42" t="n">
-        <v>3.279435855773504</v>
+        <v>3.21394815695919</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.731979914529829</v>
+        <v>-4.705127601401448</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.469798534209777</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.26855341864582</v>
+        <v>-21.18956755560169</v>
       </c>
       <c r="F43" t="n">
-        <v>3.398706734661628</v>
+        <v>3.33227639004271</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.78205797289943</v>
+        <v>-4.749065369738281</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.53360328299271</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.97452648142634</v>
+        <v>-20.89997890904555</v>
       </c>
       <c r="F44" t="n">
-        <v>3.299755109783863</v>
+        <v>3.238718793935736</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.829177170826803</v>
+        <v>-4.800177720032379</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.599729619246284</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.48183694088651</v>
+        <v>-20.4132463662987</v>
       </c>
       <c r="F45" t="n">
-        <v>3.433244229558102</v>
+        <v>3.366054531374364</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.772395853402236</v>
+        <v>-4.747821600968317</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.673285606098364</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.15731803034864</v>
+        <v>-20.08566385689587</v>
       </c>
       <c r="F46" t="n">
-        <v>3.459638312087022</v>
+        <v>3.394072059455657</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.73077542266839</v>
+        <v>-4.7220559489758</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.753280475348078</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.6057000347182</v>
+        <v>-19.54171795073068</v>
       </c>
       <c r="F47" t="n">
-        <v>3.464115879658892</v>
+        <v>3.401613225892492</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.995449416916724</v>
+        <v>-4.991888310543774</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.841974459021754</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.12817138086908</v>
+        <v>-19.06654591139307</v>
       </c>
       <c r="F48" t="n">
-        <v>3.38886132292465</v>
+        <v>3.330862421335804</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.109300082428374</v>
+        <v>-5.107113667853805</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.939348601758525</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.75242228931154</v>
+        <v>-18.68045390059057</v>
       </c>
       <c r="F49" t="n">
-        <v>3.406588300972347</v>
+        <v>3.349820075850623</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.40243674305462</v>
+        <v>-5.395812037816707</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.042079147363597</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.23422894283602</v>
+        <v>-18.16563836824822</v>
       </c>
       <c r="F50" t="n">
-        <v>3.55989916724896</v>
+        <v>3.492028669317452</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.294765644484265</v>
+        <v>-5.309913438872142</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.153722357505092</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.57281889557487</v>
+        <v>-17.50108616830505</v>
       </c>
       <c r="F51" t="n">
-        <v>3.582339374319678</v>
+        <v>3.509546170519681</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.507096611971378</v>
+        <v>-5.522728821564399</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.270356003895809</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.17838708786218</v>
+        <v>-17.10868366753283</v>
       </c>
       <c r="F52" t="n">
-        <v>3.404153132643786</v>
+        <v>3.337827526447602</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.818667234998776</v>
+        <v>-5.815957128310538</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.391234471746576</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.79293659989893</v>
+        <v>-16.71905673496306</v>
       </c>
       <c r="F53" t="n">
-        <v>3.434134506151339</v>
+        <v>3.372050806075874</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.844917302196436</v>
+        <v>-5.84578139418399</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.516473405193624</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.60684260730663</v>
+        <v>-16.52316969984516</v>
       </c>
       <c r="F54" t="n">
-        <v>3.16608269776984</v>
+        <v>3.106774565896821</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.01393893188312</v>
+        <v>-6.021964513525098</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.641586727866039</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.3230931278179</v>
+        <v>-16.23352868407765</v>
       </c>
       <c r="F55" t="n">
-        <v>3.02067958240963</v>
+        <v>2.959590897350136</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.146668698092538</v>
+        <v>-6.163610137969732</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.77000058461944</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.00447884586166</v>
+        <v>-15.9052784672299</v>
       </c>
       <c r="F56" t="n">
-        <v>2.967158248392654</v>
+        <v>2.905912455699059</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.4725361158231</v>
+        <v>-6.47533786863123</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.899192897945862</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.45693255641499</v>
+        <v>-15.35853080825658</v>
       </c>
       <c r="F57" t="n">
-        <v>3.014866599947903</v>
+        <v>2.943565918671863</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.728713205527154</v>
+        <v>-6.732693265591039</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.029439588862176</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.26159539801644</v>
+        <v>-15.15719737515651</v>
       </c>
       <c r="F58" t="n">
-        <v>2.859460965216615</v>
+        <v>2.785672746400647</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.707215644261041</v>
+        <v>-6.708825997510573</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.164550102566526</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.92148355479408</v>
+        <v>-14.81317093338448</v>
       </c>
       <c r="F59" t="n">
-        <v>2.995961314644451</v>
+        <v>2.91274663778244</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.813472774124489</v>
+        <v>-6.818447849204345</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.302124956682608</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.87390612626724</v>
+        <v>-14.7584581998089</v>
       </c>
       <c r="F60" t="n">
-        <v>2.814842397132013</v>
+        <v>2.731653904875685</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823972801003554</v>
+        <v>-6.823684770341035</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.445356258199492</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.52749688537801</v>
+        <v>-14.41402589664877</v>
       </c>
       <c r="F61" t="n">
-        <v>2.701908192819284</v>
+        <v>2.617777054758352</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.242271876796702</v>
+        <v>-7.232282449728464</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.594670406604472</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.33435923385687</v>
+        <v>-14.20900043414734</v>
       </c>
       <c r="F62" t="n">
-        <v>2.660353223599645</v>
+        <v>2.572111102446411</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.174558486499294</v>
+        <v>-7.17657470113692</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.747187021868121</v>
       </c>
       <c r="E63" t="n">
-        <v>-14.01660904388818</v>
+        <v>-13.89018976764847</v>
       </c>
       <c r="F63" t="n">
-        <v>2.587376727559864</v>
+        <v>2.499605929308932</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.387177484648926</v>
+        <v>-7.379060256887056</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.907805790983084</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.8372968641679</v>
+        <v>-13.70379465209082</v>
       </c>
       <c r="F64" t="n">
-        <v>2.502800451202313</v>
+        <v>2.411625654212533</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.379924348874609</v>
+        <v>-7.392859544082235</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.072077522597317</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.65083628709604</v>
+        <v>-13.51453232221083</v>
       </c>
       <c r="F65" t="n">
-        <v>2.236555380612972</v>
+        <v>2.16622352974722</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.743445229577975</v>
+        <v>-7.742018168568227</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.240002134780072</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.43826965815777</v>
+        <v>-13.2993734173099</v>
       </c>
       <c r="F66" t="n">
-        <v>2.170413066656572</v>
+        <v>2.099793185128302</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.776385463527758</v>
+        <v>-7.784646706620887</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.410880930068574</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.2700990281558</v>
+        <v>-13.12982809550955</v>
       </c>
       <c r="F67" t="n">
-        <v>2.47789889119735</v>
+        <v>2.378947266319585</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.870794059319445</v>
+        <v>-7.864784692315093</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.578250123261158</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.22612198291044</v>
+        <v>-13.08074505215592</v>
       </c>
       <c r="F68" t="n">
-        <v>2.165464176182399</v>
+        <v>2.085705867270605</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.754586779296284</v>
+        <v>-7.762782560875205</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.74390231819938</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.08705554212563</v>
+        <v>-12.94060504253808</v>
       </c>
       <c r="F69" t="n">
-        <v>2.248914514495562</v>
+        <v>2.147684828923336</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.826856290982612</v>
+        <v>-7.835091349470058</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.900210694520684</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.07554740792775</v>
+        <v>-12.91931695811743</v>
       </c>
       <c r="F70" t="n">
-        <v>2.240535440676857</v>
+        <v>2.145380583623192</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.731112280301069</v>
+        <v>-7.743458321880817</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.044291083356601</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.76410770792877</v>
+        <v>-12.61269522556421</v>
       </c>
       <c r="F71" t="n">
-        <v>2.198404410132182</v>
+        <v>2.101154784623841</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.418651380680435</v>
+        <v>-7.4494837538727</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.173323442026975</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.69450902602216</v>
+        <v>-12.54458906618155</v>
       </c>
       <c r="F72" t="n">
-        <v>2.200970501489161</v>
+        <v>2.109141089357294</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.492478876404928</v>
+        <v>-7.515521329406366</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.279390179952999</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.33722008147145</v>
+        <v>-12.22359198510811</v>
       </c>
       <c r="F73" t="n">
-        <v>2.177482910191104</v>
+        <v>2.085286913579669</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.204827890669365</v>
+        <v>-7.246670890551521</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.360612856710665</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.5399936678841</v>
+        <v>-12.42556694104742</v>
       </c>
       <c r="F74" t="n">
-        <v>2.197985456441247</v>
+        <v>2.108695951060676</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.163207459935517</v>
+        <v>-7.197077247387063</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.408809091083032</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.67339114153845</v>
+        <v>-12.5584407225881</v>
       </c>
       <c r="F75" t="n">
-        <v>2.130010220087005</v>
+        <v>2.04069453010075</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.099552683519045</v>
+        <v>-7.126116965984908</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.418313427141436</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.92065237300729</v>
+        <v>-12.81561282730812</v>
       </c>
       <c r="F76" t="n">
-        <v>2.10379942979787</v>
+        <v>2.020218168456291</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.731056727735823</v>
+        <v>-6.776591757019347</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.3862173844187</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.49092690018719</v>
+        <v>-13.390522029694</v>
       </c>
       <c r="F77" t="n">
-        <v>2.099452785254417</v>
+        <v>2.013488724795643</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.690562235046364</v>
+        <v>-6.721761192718198</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.304827524685438</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.97772490444825</v>
+        <v>-13.88202017067523</v>
       </c>
       <c r="F78" t="n">
-        <v>2.153209780722544</v>
+        <v>2.064417782849958</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.728137144202119</v>
+        <v>-6.740195155119348</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.174583603061793</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.46525607766845</v>
+        <v>-14.37042852818583</v>
       </c>
       <c r="F79" t="n">
-        <v>2.196100164832039</v>
+        <v>2.109141089357294</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.64289316039964</v>
+        <v>-6.645079574974209</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.992753115157708</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.01225249039576</v>
+        <v>-14.91865561738026</v>
       </c>
       <c r="F80" t="n">
-        <v>2.071461441778807</v>
+        <v>1.996730577158234</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.279005695216706</v>
+        <v>-6.291836152001597</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.761006420241271</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.7825643126944</v>
+        <v>-15.69051233141422</v>
       </c>
       <c r="F81" t="n">
-        <v>2.175335772525061</v>
+        <v>2.096074971121252</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.229058559875521</v>
+        <v>-6.234701342400305</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.487291362919214</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.50803499776012</v>
+        <v>-16.41912516916196</v>
       </c>
       <c r="F82" t="n">
-        <v>2.137917971003408</v>
+        <v>2.0664078128819</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.126166151842396</v>
+        <v>-6.133759687490596</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.173744914117272</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.38574298026944</v>
+        <v>-17.29585122895815</v>
       </c>
       <c r="F83" t="n">
-        <v>2.122521422861538</v>
+        <v>2.047895296663699</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.825828724653199</v>
+        <v>-5.837847458661904</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.83394363730315</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.43706799076288</v>
+        <v>-18.34929719251195</v>
       </c>
       <c r="F84" t="n">
-        <v>2.124459083682114</v>
+        <v>2.058866646445066</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.725607146399787</v>
+        <v>-5.728003037819822</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.477212607061163</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.23444160303537</v>
+        <v>-19.14828115803397</v>
       </c>
       <c r="F85" t="n">
-        <v>2.155906795107939</v>
+        <v>2.085941528721755</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.598271408961159</v>
+        <v>-5.591882365174397</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.115214724618687</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.39167025121554</v>
+        <v>-20.29785080905173</v>
       </c>
       <c r="F86" t="n">
-        <v>2.142474092392328</v>
+        <v>2.073503841022116</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.254100951857864</v>
+        <v>-5.2528571830879</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.765043557050668</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.45857510209063</v>
+        <v>-21.36394393715064</v>
       </c>
       <c r="F87" t="n">
-        <v>1.936505984086294</v>
+        <v>1.892646769566512</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.880210967303851</v>
+        <v>-4.890148025160721</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.435813373535374</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.79759037522817</v>
+        <v>-22.70551220934231</v>
       </c>
       <c r="F88" t="n">
-        <v>2.036871577670966</v>
+        <v>1.987723072803127</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.662171755777745</v>
+        <v>-4.661923002023753</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.143961597170938</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.16563128376581</v>
+        <v>-24.08438045233006</v>
       </c>
       <c r="F89" t="n">
-        <v>1.914091961621259</v>
+        <v>1.855752660158528</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.270803546930027</v>
+        <v>-4.276223760306502</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.90290745379859</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.63181209440503</v>
+        <v>-25.55302261590352</v>
       </c>
       <c r="F90" t="n">
-        <v>1.690030290787959</v>
+        <v>1.639965324721199</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.169076353849816</v>
+        <v>-4.164467863249529</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.720560299756428</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.27357377845464</v>
+        <v>-27.19613280714583</v>
       </c>
       <c r="F91" t="n">
-        <v>1.479191845824803</v>
+        <v>1.434101954837898</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.058420210231548</v>
+        <v>-4.061654009033454</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.608225673224207</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.85118317857978</v>
+        <v>-28.78725346380364</v>
       </c>
       <c r="F92" t="n">
-        <v>1.350677801130419</v>
+        <v>1.31040587758927</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.78500055768494</v>
+        <v>-3.791245586140443</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.56924450883309</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.69345348065043</v>
+        <v>-30.6351141791877</v>
       </c>
       <c r="F93" t="n">
-        <v>1.209490407285245</v>
+        <v>1.171208513776039</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.768019840899222</v>
+        <v>-3.780732466958538</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.603090900022331</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.76131725298685</v>
+        <v>-32.71102971777178</v>
       </c>
       <c r="F94" t="n">
-        <v>1.092379758366006</v>
+        <v>1.056938894573453</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.755464322474006</v>
+        <v>-3.773649531121164</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.711174938839338</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.78271644253799</v>
+        <v>-34.74016645830238</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6892153846578933</v>
+        <v>0.6529104288777869</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.737959913574618</v>
+        <v>-3.758475552127603</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.888280531463576</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.74585488444345</v>
+        <v>-36.70935354412072</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4743052335109599</v>
+        <v>0.4308256957735876</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.956758478665544</v>
+        <v>-3.9726525343154</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.124964774822823</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.82732155943243</v>
+        <v>-38.79659392466289</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08394513198205547</v>
+        <v>0.04739142244795629</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.939686115759934</v>
+        <v>-3.966905013367882</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.425234375971261</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.03095251223755</v>
+        <v>-41.0156868871241</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1173359319066411</v>
+        <v>-0.1606714543127544</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.138859318891113</v>
+        <v>-4.166889939275248</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.763529344665152</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.40291120267874</v>
+        <v>-43.39336691390712</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.03875593025060124</v>
+        <v>-0.08156776054304549</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.469256673404911</v>
+        <v>-4.49609589423045</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.159633852952676</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79572593154681</v>
+        <v>-45.79615797754058</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3267996850714165</v>
+        <v>-0.3539138442566311</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.642991532114617</v>
+        <v>-4.677581396222457</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.565137950969461</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19368593543167</v>
+        <v>-48.19468095044764</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2487826524375708</v>
+        <v>-0.2873263920036124</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.907704803271476</v>
+        <v>-4.952441202081654</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.037039554385563</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.39801078028741</v>
+        <v>-50.40857626868068</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.3989644583350105</v>
+        <v>-0.4346540758815558</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.272155237476604</v>
+        <v>-5.311929653509768</v>
       </c>
     </row>
   </sheetData>
